--- a/biology/Microbiologie/DSG1/DSG1.xlsx
+++ b/biology/Microbiologie/DSG1/DSG1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La DSG1 (ou desmogléine-1) est une protéine desmosomale majoritairement exprimée dans les dernières couches vivantes de l’épiderme humain et responsable des propriétés d’adhérence des desmosomes. Son gène est le DSG1 situé sur le chromosome 18 humain[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La DSG1 (ou desmogléine-1) est une protéine desmosomale majoritairement exprimée dans les dernières couches vivantes de l’épiderme humain et responsable des propriétés d’adhérence des desmosomes. Son gène est le DSG1 situé sur le chromosome 18 humain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La desmogléine-1 est une glycoprotéine transmembranaire capable de lier le calcium.
 </t>
